--- a/2024/Data/Documentation/codebook.xlsx
+++ b/2024/Data/Documentation/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb558768\Documents\GitHub\manage-successful-field-research\2024\Data\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B6AE5-72B0-4651-BC50-4BDB5F7526FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B42296B-17CC-4F0A-891C-EC399F7F5F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="907">
   <si>
     <t>byte</t>
   </si>
@@ -2739,16 +2739,10 @@
     <t>livestock_before</t>
   </si>
   <si>
-    <t>crop_other_1</t>
-  </si>
-  <si>
-    <t>crop_other_2</t>
-  </si>
-  <si>
-    <t>Crops grown on this owned/rented/borrowed land (other). FIRST</t>
-  </si>
-  <si>
-    <t>Crops grown on this owned/rented/borrowed land (other). SECOND</t>
+    <t>crop_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crops grown (other). </t>
   </si>
 </sst>
 </file>
@@ -3098,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4786,21 +4780,10 @@
         <v>905</v>
       </c>
       <c r="B63" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E63" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>906</v>
-      </c>
-      <c r="B64" t="s">
-        <v>908</v>
-      </c>
-      <c r="E64" t="s">
-        <v>906</v>
       </c>
     </row>
   </sheetData>
